--- a/Excel/predictability_rankability_correllation.xlsx
+++ b/Excel/predictability_rankability_correllation.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirobertson/Documents/GitHub/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F570BD7-6571-7147-8FB7-9DE9B92DDB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CD0CD8-2724-CE4C-806C-CA99A0D754F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="460" windowWidth="24800" windowHeight="19480" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
+    <workbookView xWindow="21620" yWindow="1040" windowWidth="24800" windowHeight="19480" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ABconn" localSheetId="0">Sheet1!$D$1:$J$9</definedName>
+    <definedName name="connR" localSheetId="0">Sheet1!$M$2:$R$10</definedName>
     <definedName name="output" localSheetId="0">Sheet1!$B$2:$C$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -44,7 +45,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{A2ED82C8-04AD-8B49-82B7-C59F12AAF0E5}" name="output" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{C29C7018-E802-8A4A-9561-C2A2E28EBDB8}" name="connR" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/mirobertson/Desktop/connR.csv" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{A2ED82C8-04AD-8B49-82B7-C59F12AAF0E5}" name="output" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Volumes/Untitled/rankability/MATLAB/output.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -56,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Colley</t>
   </si>
@@ -125,6 +138,30 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>connR</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Cconn</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Bc</t>
+  </si>
+  <si>
+    <t>Massey_Conn</t>
+  </si>
+  <si>
+    <t>Colley_Conn</t>
   </si>
 </sst>
 </file>
@@ -133,7 +170,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -200,12 +237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,8 +249,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,11 +272,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ABconn" connectionId="1" xr16:uid="{80C3CD71-E55B-004C-A0B8-725737827C3E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="connR" connectionId="2" xr16:uid="{DC348E70-49A4-C342-AD8D-31355C157F7F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output" connectionId="2" xr16:uid="{DA8A6E3A-1362-B14E-B159-C60F69E0529A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output" connectionId="3" xr16:uid="{DA8A6E3A-1362-B14E-B159-C60F69E0529A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ABconn" connectionId="1" xr16:uid="{80C3CD71-E55B-004C-A0B8-725737827C3E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F100A4C1-96A9-E841-B12C-45ADF3068AE8}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C27" sqref="C27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,491 +595,529 @@
     <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="N1" s="4"/>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="5"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1995</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.89285999999999999</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0.92593000000000003</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="G2" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="4"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A18" si="0">A2+1</f>
         <v>1996</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.85714000000000001</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.96296000000000004</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="G3" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.67857000000000001</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.71428999999999998</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.185</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.153</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5"/>
+      <c r="G4" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.75</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.88888999999999996</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.183</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>0.53</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="N5" s="4"/>
+      <c r="G5" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.82142999999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.88888999999999996</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="N6" s="4"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="G6" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.92857000000000001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.92857000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.85714000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.89285999999999999</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.96296000000000004</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.08</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.78571000000000002</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.88461999999999996</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.09</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="G10" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.76190000000000002</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.77778000000000003</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.33900000000000002</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.66900000000000004</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.82142999999999999</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.88461999999999996</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.75</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.80769000000000002</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.68</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.64285999999999999</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.65385000000000004</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.316</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="7">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>0.71428999999999998</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.85185</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.68</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>0.53100000000000003</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.78571000000000002</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.85714000000000001</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0.68</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.75</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.74073999999999995</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.64285999999999999</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.80769000000000002</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.68</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>1</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>A18+1</f>
         <v>2012</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.64285999999999999</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.76922999999999997</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="7">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="K19" s="2"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1047,48 +1127,48 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12">
-        <f>CORREL($B$2:$B$19,$E$2:$E$19)</f>
-        <v>-0.65963215025512545</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="11">
+        <f>CORREL($C$2:$C$19,$G$2:$G$19)</f>
+        <v>-0.82887757508960647</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0.659632150255125</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12">
-        <f>CORREL($B$2:$B$19,$F$2:$F$19)</f>
-        <v>-0.78199434103687238</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
+        <f>CORREL($B$2:$B$19,$G$2:$G$19)</f>
+        <v>-0.80242040435211148</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>0.70497333609332258</v>
       </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="12">
-        <f>CORREL($C$2:$C$19,$E$2:$E$19)</f>
-        <v>-0.70497333609332258</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="11">
+        <f>CORREL($C$2:$C$19,$D$2:$D$19)</f>
+        <v>-0.7849057928546842</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>0.71864525965747184</v>
       </c>
       <c r="E23" s="1"/>
@@ -1097,24 +1177,24 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="12">
-        <f>CORREL($C$2:$C$19,$F$2:$F$19)</f>
-        <v>-0.7758350788134134</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="11">
+        <f>CORREL($B$2:$B$19,$F$2:$F$19)</f>
+        <v>-0.78199434103687238</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>0.7758350788134134</v>
       </c>
       <c r="E24" s="1"/>
@@ -1123,24 +1203,24 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="12">
-        <f>CORREL($D$2:$D$19,$E$2:$E$19)</f>
-        <v>0.69300407765951144</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="11">
+        <f>CORREL($C$2:$C$19,$F$2:$F$19)</f>
+        <v>-0.7758350788134134</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>0.78199434103687238</v>
       </c>
       <c r="W25" t="s">
@@ -1148,40 +1228,54 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="13">
-        <f>CORREL($D$2:$D$19,$F$2:$F$19)</f>
-        <v>0.90799842404710618</v>
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11">
+        <f>CORREL($B$2:$B$19,$D$2:$D$19)</f>
+        <v>-0.71864525965747184</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>0.7849057928546842</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="13">
-        <f>CORREL($B$2:$B$19,$C$2:$C$19)</f>
-        <v>0.82984629252926245</v>
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11">
+        <f>CORREL($C$2:$C$19,$E$2:$E$19)</f>
+        <v>-0.70497333609332258</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10">
+        <f>-0.802420404352111 * - 1</f>
+        <v>0.80242040435211104</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="12">
-        <f>CORREL($B$2:$B$19,$D$2:$D$19)</f>
-        <v>-0.71864525965747184</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="11">
+        <f>CORREL($B$2:$B$19,$E$2:$E$19)</f>
+        <v>-0.65963215025512545</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10">
+        <f>-0.829 * -1</f>
+        <v>0.82899999999999996</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1189,11 +1283,11 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="12">
-        <f>CORREL($C$2:$C$19,$D$2:$D$19)</f>
-        <v>-0.7849057928546842</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="11">
+        <f>CORREL($E$2:$E$19,$F$2:$F$19)</f>
+        <v>0.58104926090384934</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1201,46 +1295,85 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="12">
-        <f>CORREL($E$2:$E$19,$F$2:$F$19)</f>
-        <v>0.58104926090384934</v>
+        <v>8</v>
+      </c>
+      <c r="B30" s="11">
+        <f>CORREL($D$2:$D$19,$E$2:$E$19)</f>
+        <v>0.69300407765951144</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="11">
+        <f>CORREL($E$2:$E$19,$G$2:$G$19)</f>
+        <v>0.81306221064115525</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="12">
+        <f>CORREL($B$2:$B$19,$C$2:$C$19)</f>
+        <v>0.82984629252926245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12">
+        <f>CORREL($D$2:$D$19,$F$2:$F$19)</f>
+        <v>0.90799842404710618</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="11">
+        <f>CORREL($D$2:$D$19,$G$2:$G$19)</f>
+        <v>0.93908822015870541</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="11">
+        <f>CORREL($F$2:$F$19,$G$2:$G$19)</f>
+        <v>0.94223290675155202</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="C21:D26">
-    <sortCondition ref="D21:D26"/>
+  <sortState ref="C21:D28">
+    <sortCondition ref="D21:D28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/predictability_rankability_correllation.xlsx
+++ b/Excel/predictability_rankability_correllation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirobertson/Documents/GitHub/DataRankability/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CD0CD8-2724-CE4C-806C-CA99A0D754F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9523E-5DD6-6F4D-9BD5-42295F01AEC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21620" yWindow="1040" windowWidth="24800" windowHeight="19480" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{C29C7018-E802-8A4A-9561-C2A2E28EBDB8}" name="connR" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/mirobertson/Desktop/connR.csv" comma="1">
+    <textPr sourceFile="/Users/mirobertson/Desktop/connR.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -69,72 +69,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Colley</t>
   </si>
   <si>
     <t>Massey</t>
-  </si>
-  <si>
-    <t>\beta</t>
-  </si>
-  <si>
-    <t>\alpha</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>Mb</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Cb</t>
-  </si>
-  <si>
-    <t>specA</t>
-  </si>
-  <si>
-    <t>specB</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Cs</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Massey_Alpha</t>
-  </si>
-  <si>
-    <t>Colley_Alpha</t>
-  </si>
-  <si>
-    <t>Massey_Spectral</t>
-  </si>
-  <si>
-    <t>Colley_Beta</t>
-  </si>
-  <si>
-    <t>Massey_Beta</t>
-  </si>
-  <si>
-    <t>Colley_Spectral</t>
-  </si>
-  <si>
-    <t>Correlation Formulae</t>
-  </si>
-  <si>
-    <t>Spectral</t>
   </si>
   <si>
     <t>Year</t>
@@ -143,25 +83,19 @@
     <t>connR</t>
   </si>
   <si>
-    <t>Mc</t>
+    <t>specR</t>
   </si>
   <si>
-    <t>Cconn</t>
+    <t>alpha</t>
   </si>
   <si>
-    <t>Sc</t>
+    <t>beta</t>
   </si>
   <si>
-    <t>Ac</t>
+    <t>rankability</t>
   </si>
   <si>
-    <t>Bc</t>
-  </si>
-  <si>
-    <t>Massey_Conn</t>
-  </si>
-  <si>
-    <t>Colley_Conn</t>
+    <t>Correlation</t>
   </si>
 </sst>
 </file>
@@ -172,7 +106,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +149,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,22 +195,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,800 +543,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F100A4C1-96A9-E841-B12C-45ADF3068AE8}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D28"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="1" max="13" width="13.83203125" style="1"/>
+    <col min="14" max="14" width="13.83203125" style="3"/>
+    <col min="15" max="16384" width="13.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1995</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="13">
         <v>0.89285999999999999</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="13">
         <v>0.92593000000000003</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="15">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="4"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="H2" s="14">
+        <f>D2/2+G2/2</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A18" si="0">A2+1</f>
         <v>1996</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="13">
         <v>0.85714000000000001</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="13">
         <v>0.96296000000000004</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="14">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="15">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="4"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H19" si="1">D3/2+G3/2</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>0.67857000000000001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>0.71428999999999998</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="14">
         <v>0.185</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="14">
         <v>0.153</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="15">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="14">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="H4" s="14">
+        <f t="shared" si="1"/>
+        <v>0.127</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="13">
         <v>0.75</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>0.88888999999999996</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
         <v>0.183</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="14">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="15">
         <v>0.53</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1225</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="13">
         <v>0.82142999999999999</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="13">
         <v>0.88888999999999996</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="14">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="14">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.10049999999999999</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="13">
         <v>0.92857000000000001</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="13">
         <v>0.92857000000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14">
         <v>2E-3</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="13">
         <v>0.85714000000000001</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="14">
         <v>1E-3</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="13">
         <v>0.89285999999999999</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="13">
         <v>0.96296000000000004</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="14">
         <v>0.08</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="13">
         <v>0.78571000000000002</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>0.88461999999999996</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="14">
         <v>0.09</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="15">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="13">
         <v>0.76190000000000002</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>0.77778000000000003</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="14">
         <v>0.33900000000000002</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="14">
         <v>0.66900000000000004</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="15">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="H11" s="14">
+        <f t="shared" si="1"/>
+        <v>0.2535</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="13">
         <v>0.82142999999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="13">
         <v>0.88461999999999996</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="14">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="14">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="13">
         <v>0.75</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="13">
         <v>0.80769000000000002</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="14">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="14">
         <v>0.68</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="15">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14">
         <v>0.1</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.14750000000000002</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="13">
         <v>0.64285999999999999</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="13">
         <v>0.65385000000000004</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="14">
         <v>0.316</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="15">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="14">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="13">
         <v>0.71428999999999998</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="13">
         <v>0.85185</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="14">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="14">
         <v>0.68</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="15">
         <v>0.53100000000000003</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="13">
         <v>0.78571000000000002</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="13">
         <v>0.85714000000000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="14">
         <v>0.68</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="15">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="13">
         <v>0.75</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="13">
         <v>0.74073999999999995</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="14">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="14">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="13">
         <v>0.64285999999999999</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="13">
         <v>0.80769000000000002</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="14">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="14">
         <v>0.68</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="15">
         <v>1</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.21749999999999997</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <f>A18+1</f>
         <v>2012</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="13">
         <v>0.64285999999999999</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="13">
         <v>0.76922999999999997</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="14">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="14">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="15">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="K19" s="2"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="11">
-        <f>CORREL($C$2:$C$19,$G$2:$G$19)</f>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.22449999999999998</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <f>CORREL(B2:B19,D2:D19)</f>
+        <v>-0.71864525965747184</v>
+      </c>
+      <c r="C22" s="7">
+        <f>CORREL(C2:C19,D2:D19)</f>
+        <v>-0.7849057928546842</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <f>CORREL(B2:B19,E2:E19)</f>
+        <v>-0.65963215025512545</v>
+      </c>
+      <c r="C23" s="7">
+        <f>CORREL(C2:C19,E2:E19)</f>
+        <v>-0.70497333609332258</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <f>CORREL(B2:B19,F2:F19)</f>
+        <v>-0.78199434103687238</v>
+      </c>
+      <c r="C24" s="7">
+        <f>CORREL(C2:C19,F2:F19)</f>
+        <v>-0.7758350788134134</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7">
+        <f>CORREL(B2:B19,G2:G19)</f>
+        <v>-0.80242040435211148</v>
+      </c>
+      <c r="C25" s="7">
+        <f>CORREL(C2:C19,G2:G19)</f>
         <v>-0.82887757508960647</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.659632150255125</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="11">
-        <f>CORREL($B$2:$B$19,$G$2:$G$19)</f>
-        <v>-0.80242040435211148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.70497333609332258</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="11">
-        <f>CORREL($C$2:$C$19,$D$2:$D$19)</f>
-        <v>-0.7849057928546842</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.71864525965747184</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="11">
-        <f>CORREL($B$2:$B$19,$F$2:$F$19)</f>
-        <v>-0.78199434103687238</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.7758350788134134</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="11">
-        <f>CORREL($C$2:$C$19,$F$2:$F$19)</f>
-        <v>-0.7758350788134134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.78199434103687238</v>
-      </c>
-      <c r="W25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="11">
-        <f>CORREL($B$2:$B$19,$D$2:$D$19)</f>
-        <v>-0.71864525965747184</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.7849057928546842</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="11">
-        <f>CORREL($C$2:$C$19,$E$2:$E$19)</f>
-        <v>-0.70497333609332258</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="10">
-        <f>-0.802420404352111 * - 1</f>
-        <v>0.80242040435211104</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11">
-        <f>CORREL($B$2:$B$19,$E$2:$E$19)</f>
-        <v>-0.65963215025512545</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="10">
-        <f>-0.829 * -1</f>
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="11">
-        <f>CORREL($E$2:$E$19,$F$2:$F$19)</f>
-        <v>0.58104926090384934</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="11">
-        <f>CORREL($D$2:$D$19,$E$2:$E$19)</f>
-        <v>0.69300407765951144</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="11">
-        <f>CORREL($E$2:$E$19,$G$2:$G$19)</f>
-        <v>0.81306221064115525</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="12">
-        <f>CORREL($B$2:$B$19,$C$2:$C$19)</f>
-        <v>0.82984629252926245</v>
-      </c>
+      <c r="B26" s="7">
+        <f>CORREL(B2:B19,H2:H19)</f>
+        <v>-0.76934400854830631</v>
+      </c>
+      <c r="C26" s="7">
+        <f>CORREL(C2:C19,H2:H19)</f>
+        <v>-0.81783853513645066</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="12">
-        <f>CORREL($D$2:$D$19,$F$2:$F$19)</f>
-        <v>0.90799842404710618</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="11">
-        <f>CORREL($D$2:$D$19,$G$2:$G$19)</f>
-        <v>0.93908822015870541</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="11">
-        <f>CORREL($F$2:$F$19,$G$2:$G$19)</f>
-        <v>0.94223290675155202</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="C21:D28">
-    <sortCondition ref="D21:D28"/>
+  <sortState ref="C22:D29">
+    <sortCondition ref="D22:D29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/predictability_rankability_correllation.xlsx
+++ b/Excel/predictability_rankability_correllation.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9523E-5DD6-6F4D-9BD5-42295F01AEC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970C929-FD07-1F45-AD40-B1F53BB7C316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="20980" activeTab="1" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Big_East_Football" sheetId="1" r:id="rId1"/>
+    <sheet name="MBB_South" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ABconn" localSheetId="0">Sheet1!$D$1:$J$9</definedName>
-    <definedName name="connR" localSheetId="0">Sheet1!$M$2:$R$10</definedName>
-    <definedName name="output" localSheetId="0">Sheet1!$B$2:$C$19</definedName>
+    <definedName name="ABconn" localSheetId="0">Big_East_Football!$E$1:$K$9</definedName>
+    <definedName name="connR" localSheetId="0">Big_East_Football!$N$2:$S$10</definedName>
+    <definedName name="output" localSheetId="0">Big_East_Football!$B$2:$C$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Colley</t>
   </si>
@@ -92,19 +93,21 @@
     <t>beta</t>
   </si>
   <si>
-    <t>rankability</t>
+    <t>Correlation</t>
   </si>
   <si>
-    <t>Correlation</t>
+    <t>Cycles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -191,11 +194,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -216,8 +220,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -543,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F100A4C1-96A9-E841-B12C-45ADF3068AE8}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +564,7 @@
     <col min="15" max="16384" width="13.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -566,26 +574,29 @@
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1995</v>
       </c>
@@ -595,26 +606,28 @@
       <c r="C2" s="13">
         <v>0.92593000000000003</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="21">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="15">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H2" s="14">
-        <f>D2/2+G2/2</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I2" s="14"/>
+      <c r="J2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="3"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A18" si="0">A2+1</f>
         <v>1996</v>
@@ -625,26 +638,28 @@
       <c r="C3" s="13">
         <v>0.96296000000000004</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E3" s="14">
+      <c r="F3" s="14">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G3" s="14">
+      <c r="H3" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H3" s="14">
-        <f t="shared" ref="H3:H19" si="1">D3/2+G3/2</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I3" s="14"/>
+      <c r="J3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>1997</v>
@@ -655,26 +670,28 @@
       <c r="C4" s="13">
         <v>0.71428999999999998</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="21">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14">
         <v>0.185</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F4" s="14">
         <v>0.153</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="15">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G4" s="14">
+      <c r="H4" s="14">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H4" s="14">
-        <f t="shared" si="1"/>
-        <v>0.127</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I4" s="14"/>
+      <c r="J4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -685,25 +702,27 @@
       <c r="C5" s="13">
         <v>0.88888999999999996</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14">
         <v>0.183</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="14">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>0.53</v>
       </c>
-      <c r="G5" s="14">
+      <c r="H5" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="H5" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1225</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I5" s="14"/>
+      <c r="J5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1999</v>
@@ -714,25 +733,27 @@
       <c r="C6" s="13">
         <v>0.88888999999999996</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="21">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H6" s="14">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H6" s="14">
-        <f t="shared" si="1"/>
-        <v>0.10049999999999999</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I6" s="14"/>
+      <c r="J6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -743,25 +764,27 @@
       <c r="C7" s="13">
         <v>0.92857000000000001</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="21">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F7" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G7" s="14">
+      <c r="H7" s="14">
         <v>2E-3</v>
       </c>
-      <c r="H7" s="14">
-        <f t="shared" si="1"/>
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I7" s="14"/>
+      <c r="J7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -772,25 +795,27 @@
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="14">
+      <c r="H8" s="14">
         <v>1E-3</v>
       </c>
-      <c r="H8" s="14">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I8" s="14"/>
+      <c r="J8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -801,25 +826,27 @@
       <c r="C9" s="13">
         <v>0.96296000000000004</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="14">
         <v>0.08</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="14">
+      <c r="H9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="14">
-        <f t="shared" si="1"/>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I9" s="14"/>
+      <c r="J9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -830,25 +857,27 @@
       <c r="C10" s="13">
         <v>0.88461999999999996</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="21">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F10" s="14">
         <v>0.09</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G10" s="14">
+      <c r="H10" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H10" s="14">
-        <f t="shared" si="1"/>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I10" s="14"/>
+      <c r="J10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -859,25 +888,27 @@
       <c r="C11" s="13">
         <v>0.77778000000000003</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="21">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14">
         <v>0.33900000000000002</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="14">
         <v>0.66900000000000004</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G11" s="14">
+      <c r="H11" s="14">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H11" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2535</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I11" s="14"/>
+      <c r="J11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -888,25 +919,27 @@
       <c r="C12" s="13">
         <v>0.88461999999999996</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="21">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="G12" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G12" s="14">
+      <c r="H12" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H12" s="14">
-        <f t="shared" si="1"/>
-        <v>8.7500000000000008E-2</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I12" s="14"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -917,25 +950,27 @@
       <c r="C13" s="13">
         <v>0.80769000000000002</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="21">
+        <v>45</v>
+      </c>
+      <c r="E13" s="14">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <v>0.68</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="15">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G13" s="14">
+      <c r="H13" s="14">
         <v>0.1</v>
       </c>
-      <c r="H13" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14750000000000002</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I13" s="14"/>
+      <c r="J13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -946,25 +981,27 @@
       <c r="C14" s="13">
         <v>0.65385000000000004</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="21">
+        <v>205</v>
+      </c>
+      <c r="E14" s="14">
         <v>0.316</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
-      <c r="G14" s="14">
+      <c r="H14" s="14">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H14" s="14">
-        <f t="shared" si="1"/>
-        <v>0.24249999999999999</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I14" s="14"/>
+      <c r="J14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -975,25 +1012,27 @@
       <c r="C15" s="13">
         <v>0.85185</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
+        <v>43</v>
+      </c>
+      <c r="E15" s="14">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F15" s="14">
         <v>0.68</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <v>0.53100000000000003</v>
       </c>
-      <c r="G15" s="14">
+      <c r="H15" s="14">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H15" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14700000000000002</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I15" s="14"/>
+      <c r="J15" s="2"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -1004,23 +1043,25 @@
       <c r="C16" s="13">
         <v>0.85714000000000001</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="21">
+        <v>26</v>
+      </c>
+      <c r="E16" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E16" s="14">
+      <c r="F16" s="14">
         <v>0.68</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="15">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G16" s="14">
+      <c r="H16" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H16" s="14">
-        <f t="shared" si="1"/>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="2"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1033,23 +1074,25 @@
       <c r="C17" s="13">
         <v>0.74073999999999995</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="21">
+        <v>174</v>
+      </c>
+      <c r="E17" s="14">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F17" s="14">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="14">
+      <c r="H17" s="14">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H17" s="14">
-        <f t="shared" si="1"/>
-        <v>0.22899999999999998</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1062,23 +1105,25 @@
       <c r="C18" s="13">
         <v>0.80769000000000002</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="21">
+        <v>125</v>
+      </c>
+      <c r="E18" s="14">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E18" s="14">
+      <c r="F18" s="14">
         <v>0.68</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="15">
         <v>1</v>
       </c>
-      <c r="G18" s="14">
+      <c r="H18" s="14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.21749999999999997</v>
-      </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1091,24 +1136,26 @@
       <c r="C19" s="13">
         <v>0.76922999999999997</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="21">
+        <v>111</v>
+      </c>
+      <c r="E19" s="14">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E19" s="14">
+      <c r="F19" s="14">
         <v>0.91200000000000003</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="15">
         <v>1</v>
       </c>
-      <c r="G19" s="14">
+      <c r="H19" s="14">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.22449999999999998</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="6"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
@@ -1123,13 +1170,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>0</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -1138,14 +1188,17 @@
         <v>4</v>
       </c>
       <c r="B22" s="7">
-        <f>CORREL(B2:B19,D2:D19)</f>
+        <f>CORREL(B2:B19,E2:E19)</f>
         <v>-0.71864525965747184</v>
       </c>
       <c r="C22" s="7">
-        <f>CORREL(C2:C19,D2:D19)</f>
+        <f>CORREL(C2:C19,E2:E19)</f>
         <v>-0.7849057928546842</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="22">
+        <f>CORREL(D2:D19,E2:E19)</f>
+        <v>0.82591772973160982</v>
+      </c>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1153,14 +1206,17 @@
         <v>5</v>
       </c>
       <c r="B23" s="7">
-        <f>CORREL(B2:B19,E2:E19)</f>
+        <f>CORREL(B2:B19,F2:F19)</f>
         <v>-0.65963215025512545</v>
       </c>
       <c r="C23" s="7">
-        <f>CORREL(C2:C19,E2:E19)</f>
+        <f>CORREL(C2:C19,F2:F19)</f>
         <v>-0.70497333609332258</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="22">
+        <f>CORREL(D2:D19,F2:F19)</f>
+        <v>0.73535919823737284</v>
+      </c>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1168,14 +1224,17 @@
         <v>6</v>
       </c>
       <c r="B24" s="7">
-        <f>CORREL(B2:B19,F2:F19)</f>
+        <f>CORREL(B2:B19,G2:G19)</f>
         <v>-0.78199434103687238</v>
       </c>
       <c r="C24" s="7">
-        <f>CORREL(C2:C19,F2:F19)</f>
+        <f>CORREL(C2:C19,G2:G19)</f>
         <v>-0.7758350788134134</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="22">
+        <f>CORREL(D2:D19,G2:G19)</f>
+        <v>0.80197871822287081</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1193,14 +1252,17 @@
         <v>3</v>
       </c>
       <c r="B25" s="7">
-        <f>CORREL(B2:B19,G2:G19)</f>
+        <f>CORREL(B2:B19,H2:H19)</f>
         <v>-0.80242040435211148</v>
       </c>
       <c r="C25" s="7">
-        <f>CORREL(C2:C19,G2:G19)</f>
+        <f>CORREL(C2:C19,H2:H19)</f>
         <v>-0.82887757508960647</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="22">
+        <f>CORREL(D2:D19,H2:H19)</f>
+        <v>0.84327789010929666</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1214,17 +1276,8 @@
       <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="7">
-        <f>CORREL(B2:B19,H2:H19)</f>
-        <v>-0.76934400854830631</v>
-      </c>
-      <c r="C26" s="7">
-        <f>CORREL(C2:C19,H2:H19)</f>
-        <v>-0.81783853513645066</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1297,9 +1350,433 @@
       <c r="B36" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="C22:D29">
-    <sortCondition ref="D22:D29"/>
+  <sortState ref="C22:E29">
+    <sortCondition ref="E22:E29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83027A3-C9CA-604E-B9EC-7F7385B6B7A1}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0.57943999999999996</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.65420999999999996</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.71028000000000002</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.71028000000000002</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.73831999999999998</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.78505000000000003</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="20">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.72897000000000001</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.73831999999999998</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F5" s="20">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.71111000000000002</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.72221999999999997</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.77063999999999999</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.77981999999999996</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.155</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.436</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.307</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.126</v>
+      </c>
+      <c r="G8" s="20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.75573000000000001</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.74046000000000001</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0.69747999999999999</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.70587999999999995</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.78151000000000004</v>
+      </c>
+      <c r="D11" s="20">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.66386999999999996</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.66386999999999996</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.78991999999999996</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F13" s="20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.74490000000000001</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.77551000000000003</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.497</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.376</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.34</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f>CORREL(B2:B15,D2:D15)</f>
+        <v>-0.33952803886537136</v>
+      </c>
+      <c r="C18">
+        <f>CORREL(C2:C15,D2:D15)</f>
+        <v>-0.61542040953106747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f>CORREL(B2:B15,E2:E15)</f>
+        <v>-0.44054880079588254</v>
+      </c>
+      <c r="C19">
+        <f>CORREL(C2:C15,E2:E15)</f>
+        <v>-0.63897015081229902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f>CORREL(B2:B15,F2:F15)</f>
+        <v>-0.32361328586292409</v>
+      </c>
+      <c r="C20">
+        <f>CORREL(C2:C15,F2:F15)</f>
+        <v>-0.37199352799471019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f>CORREL(B2:B15,G2:G15)</f>
+        <v>-0.4082383979527659</v>
+      </c>
+      <c r="C21">
+        <f>CORREL(C2:C15,G2:G15)</f>
+        <v>-0.61492651254616981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/predictability_rankability_correllation.xlsx
+++ b/Excel/predictability_rankability_correllation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970C929-FD07-1F45-AD40-B1F53BB7C316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC91B3B-F694-D646-B2AC-6E24BCBB2F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="20980" activeTab="1" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
+    <workbookView xWindow="12180" yWindow="460" windowWidth="27780" windowHeight="20980" activeTab="1" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
   </bookViews>
   <sheets>
     <sheet name="Big_East_Football" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>

--- a/Excel/predictability_rankability_correllation.xlsx
+++ b/Excel/predictability_rankability_correllation.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC91B3B-F694-D646-B2AC-6E24BCBB2F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680470E1-0EA0-2046-B9BE-DA8DC445CE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="460" windowWidth="27780" windowHeight="20980" activeTab="1" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29020" windowHeight="20980" activeTab="2" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
   </bookViews>
   <sheets>
     <sheet name="Big_East_Football" sheetId="1" r:id="rId1"/>
     <sheet name="MBB_South" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ABconn" localSheetId="0">Big_East_Football!$E$1:$K$9</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>Colley</t>
   </si>
@@ -1361,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83027A3-C9CA-604E-B9EC-7F7385B6B7A1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1779,4 +1780,657 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFE42A2-F5DC-3C41-9D5C-E3438B434529}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>0.82443</v>
+      </c>
+      <c r="C2">
+        <v>0.83375999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.94627559999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.89558040000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.89379920000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.9486251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>0.82833000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.83416999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.93805309999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.89088590000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.88701589999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.9414458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>0.82296000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.83265999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.94347829999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.95580330000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.90834950000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.9478027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>0.81442999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.83187999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.93988729999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.96466470000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.91244420000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.94394529999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>0.81083000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.82496000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.94893620000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.99833760000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.93255679999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.95260250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>0.81342999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.83216000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.94487030000000005</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.93286709999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.9489109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>0.82686000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.82842000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.9414226</v>
+      </c>
+      <c r="E8">
+        <v>0.91889860000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.94191380000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.94531620000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>0.78993000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.83021999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.9414226</v>
+      </c>
+      <c r="E9">
+        <v>0.87655749999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.94159729999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.94461859999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>0.81276999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.82074999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.93666890000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.93431310000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.92901679999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.94046269999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>0.79617000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.82299</v>
+      </c>
+      <c r="D11">
+        <v>0.94537819999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.92300479999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.94136379999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.94875929999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>0.78451000000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.81518000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.94860080000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.89049529999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.94352809999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.95062619999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>0.79046000000000005</v>
+      </c>
+      <c r="C13">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="D13">
+        <v>0.94583320000000004</v>
+      </c>
+      <c r="E13">
+        <v>0.84459740000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.94933559999999995</v>
+      </c>
+      <c r="G13">
+        <v>0.94807739999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>0.81093000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.81884000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.95008700000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.8895653</v>
+      </c>
+      <c r="F14">
+        <v>0.95624339999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.95137780000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>0.81494</v>
+      </c>
+      <c r="C15">
+        <v>0.82821</v>
+      </c>
+      <c r="D15">
+        <v>0.9464494</v>
+      </c>
+      <c r="E15">
+        <v>0.89988780000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.96470889999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.9480693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>0.80127000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.82804999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.94262299999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.88699059999999996</v>
+      </c>
+      <c r="F16">
+        <v>0.96210530000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.94541799999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>0.79576999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.81760999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.94650210000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.96058929999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.96209849999999997</v>
+      </c>
+      <c r="G17">
+        <v>0.94994020000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>0.81747999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.83077000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.94290870000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.90143589999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.96540239999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.94490200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>0.82952000000000004</v>
+      </c>
+      <c r="C19">
+        <v>0.84060999999999997</v>
+      </c>
+      <c r="D19">
+        <v>0.94699869999999997</v>
+      </c>
+      <c r="E19">
+        <v>0.94095810000000002</v>
+      </c>
+      <c r="F19">
+        <v>0.9699989</v>
+      </c>
+      <c r="G19">
+        <v>0.94971170000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>0.80959000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.84153999999999995</v>
+      </c>
+      <c r="D20">
+        <v>0.94422309999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.94363260000000004</v>
+      </c>
+      <c r="F20">
+        <v>0.99153749999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.94752860000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>0.80911</v>
+      </c>
+      <c r="C21">
+        <v>0.83157000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.94445900000000005</v>
+      </c>
+      <c r="E21">
+        <v>0.91765759999999996</v>
+      </c>
+      <c r="F21">
+        <v>0.99111499999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.94690479999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>0.82306000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.84987000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.94452829999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.90414629999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.99401059999999997</v>
+      </c>
+      <c r="G22">
+        <v>0.94577880000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>0.79503999999999997</v>
+      </c>
+      <c r="C23">
+        <v>0.80374999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.94445520000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.90348220000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.99414650000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.94590129999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>0.80506</v>
+      </c>
+      <c r="C24">
+        <v>0.83899000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.94462840000000003</v>
+      </c>
+      <c r="E24">
+        <v>0.89987589999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.99876010000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.94648310000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>0.79398000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.81405000000000005</v>
+      </c>
+      <c r="D25">
+        <v>0.94094489999999997</v>
+      </c>
+      <c r="E25">
+        <v>0.81821909999999998</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.94323769999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <f>CORREL(B2:B25,D2:D25)</f>
+        <v>-0.18479752442949213</v>
+      </c>
+      <c r="C28">
+        <f>CORREL(C2:C25,D2:D25)</f>
+        <v>-8.1914747034673815E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <f>CORREL(B2:B25,E2:E25)</f>
+        <v>0.36057449033334199</v>
+      </c>
+      <c r="C29">
+        <f>CORREL(C2:C25,E2:E25)</f>
+        <v>0.18087289913173465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <f>CORREL(B2:B25,F2:F25)</f>
+        <v>-0.32873271644380581</v>
+      </c>
+      <c r="C30">
+        <f>CORREL(C2:C25,F2:F25)</f>
+        <v>-3.75943106383737E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f>CORREL(B2:B25,G2:G25)</f>
+        <v>-0.13747516221191441</v>
+      </c>
+      <c r="C31">
+        <f>CORREL(C2:C25,G2:G25)</f>
+        <v>-5.9941128088751905E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/predictability_rankability_correllation.xlsx
+++ b/Excel/predictability_rankability_correllation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F33627-61F5-5F41-BB9A-E6DED35BC591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E28B74-1244-BE4A-96A2-91181E55F3B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20300" windowHeight="19480" activeTab="3" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
+    <workbookView xWindow="19340" yWindow="460" windowWidth="19060" windowHeight="19480" activeTab="3" xr2:uid="{A9165CDD-851E-F349-AE95-F202CCF46770}"/>
   </bookViews>
   <sheets>
     <sheet name="Big_East_Football" sheetId="1" r:id="rId1"/>
@@ -330,26 +330,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -787,26 +767,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -905,26 +865,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1117,26 +1057,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1574,26 +1494,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1693,26 +1593,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1905,26 +1785,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2362,26 +2222,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2481,26 +2321,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2688,26 +2508,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3092,7 +2892,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3146,26 +2945,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3265,26 +3044,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3422,2370 +3181,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5953,15 +3348,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ABconn" connectionId="1" xr16:uid="{80C3CD71-E55B-004C-A0B8-725737827C3E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="connR" connectionId="2" xr16:uid="{DC348E70-49A4-C342-AD8D-31355C157F7F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="connR" connectionId="2" xr16:uid="{DC348E70-49A4-C342-AD8D-31355C157F7F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output" connectionId="3" xr16:uid="{DA8A6E3A-1362-B14E-B159-C60F69E0529A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output" connectionId="3" xr16:uid="{DA8A6E3A-1362-B14E-B159-C60F69E0529A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ABconn" connectionId="1" xr16:uid="{80C3CD71-E55B-004C-A0B8-725737827C3E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7796,7 +5191,7 @@
         <v>0.74562008856096496</v>
       </c>
       <c r="C20" s="33">
-        <f t="shared" ref="C20:F20" si="0">SUM(C2:C19)/ROWS(C2:C19)</f>
+        <f t="shared" ref="C20:E20" si="0">SUM(C2:C19)/ROWS(C2:C19)</f>
         <v>0.75595278546348865</v>
       </c>
       <c r="D20" s="33">
